--- a/input_template.xlsx
+++ b/input_template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\PycharmProjects\1099_automating\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Documents\pycharmprojects\1099_automating\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DE1646E-0CA4-471F-9528-9E656F6FA707}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{978EBE1B-CA06-4822-B8E0-F6AD7DC72A70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2160" windowWidth="10425" windowHeight="11385" xr2:uid="{A73F84BD-3259-49CC-9357-80230FC0B03D}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{A73F84BD-3259-49CC-9357-80230FC0B03D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,14 +35,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="206">
   <si>
     <t>LLC</t>
   </si>
   <si>
-    <t>1099 Automate Form - inputs</t>
-  </si>
-  <si>
     <t>Payer_TIN</t>
   </si>
   <si>
@@ -61,42 +58,9 @@
     <t>20-818-4452</t>
   </si>
   <si>
-    <t>134-55-5159</t>
-  </si>
-  <si>
-    <t>Chunhu Lei</t>
-  </si>
-  <si>
-    <t>1833 S Gladys Ave</t>
-  </si>
-  <si>
-    <t>San Gabriel, CA 91776</t>
-  </si>
-  <si>
     <t>Person</t>
   </si>
   <si>
-    <t>victor chne</t>
-  </si>
-  <si>
-    <t>person a</t>
-  </si>
-  <si>
-    <t>person b</t>
-  </si>
-  <si>
-    <t>person c</t>
-  </si>
-  <si>
-    <t>person d</t>
-  </si>
-  <si>
-    <t>person e</t>
-  </si>
-  <si>
-    <t>Guidance (Not Part of Script) - All possible properties (copy exactly in below format)</t>
-  </si>
-  <si>
     <t>Westwind</t>
   </si>
   <si>
@@ -121,14 +85,584 @@
     <t>Hitching Post</t>
   </si>
   <si>
-    <t>person f</t>
+    <t>Sheng Ping Liu</t>
+  </si>
+  <si>
+    <t>Alpha Ready Mix</t>
+  </si>
+  <si>
+    <t>Richard Hess</t>
+  </si>
+  <si>
+    <t>Michael Stanley Paving</t>
+  </si>
+  <si>
+    <t>Hector Barojas</t>
+  </si>
+  <si>
+    <t>Victor Chen</t>
+  </si>
+  <si>
+    <t>Jose David Barrios</t>
+  </si>
+  <si>
+    <t>Jesus De La Cruz</t>
+  </si>
+  <si>
+    <t>Braedon Figueroa</t>
+  </si>
+  <si>
+    <t>Micah Archambeau</t>
+  </si>
+  <si>
+    <t>Artemio Negrete</t>
+  </si>
+  <si>
+    <t>Oscar Urbina</t>
+  </si>
+  <si>
+    <t>Jason Buyak</t>
+  </si>
+  <si>
+    <t>Rene Rodriguez</t>
+  </si>
+  <si>
+    <t>Anthony Preciado</t>
+  </si>
+  <si>
+    <t>David Foster</t>
+  </si>
+  <si>
+    <t>Salvador Murillo</t>
+  </si>
+  <si>
+    <t>Rick Perez</t>
+  </si>
+  <si>
+    <t>Zhong Wen Zhao</t>
+  </si>
+  <si>
+    <t>Luis Fuentes</t>
+  </si>
+  <si>
+    <t>Miguel Bravo</t>
+  </si>
+  <si>
+    <t>Antonio Beas</t>
+  </si>
+  <si>
+    <t>Zhang Yi</t>
+  </si>
+  <si>
+    <t>Sandra Davidson</t>
+  </si>
+  <si>
+    <t>Nico Frausto</t>
+  </si>
+  <si>
+    <t>20-818-4449</t>
+  </si>
+  <si>
+    <t>835-04-1255</t>
+  </si>
+  <si>
+    <t>10731 Hampton Pl</t>
+  </si>
+  <si>
+    <t>Rancho Cucamonga, CA 91730</t>
+  </si>
+  <si>
+    <t>Antonio Sanchez</t>
+  </si>
+  <si>
+    <t>624-46-7912</t>
+  </si>
+  <si>
+    <t>34642 Yucaipa Blvd, Sp #98A</t>
+  </si>
+  <si>
+    <t>Yucaipa, CA 92399</t>
+  </si>
+  <si>
+    <t>Margi Stowell</t>
+  </si>
+  <si>
+    <t>391-56-7916</t>
+  </si>
+  <si>
+    <t>13645 5th St, Sp #3</t>
+  </si>
+  <si>
+    <t>Vasilios Selberis</t>
+  </si>
+  <si>
+    <t>609-19-3166</t>
+  </si>
+  <si>
+    <t>32198 1/2 Ave D</t>
+  </si>
+  <si>
+    <t>Hector Sohmer</t>
+  </si>
+  <si>
+    <t>556-73-3702</t>
+  </si>
+  <si>
+    <t>34480 County Line Rd, Sp 2</t>
+  </si>
+  <si>
+    <t>Debbie Robb Ward</t>
+  </si>
+  <si>
+    <t>563-37-8793</t>
+  </si>
+  <si>
+    <t>35011 Avenue E, Sp 63</t>
+  </si>
+  <si>
+    <t>Shi Ju Zeng</t>
+  </si>
+  <si>
+    <t>tbd</t>
+  </si>
+  <si>
+    <t>Zheng Yi Pei</t>
+  </si>
+  <si>
+    <t>Huan Yu Zhang</t>
+  </si>
+  <si>
+    <t>Solanos Air Conditioning</t>
+  </si>
+  <si>
+    <t>464-81-4149</t>
+  </si>
+  <si>
+    <t>87-451-5233</t>
+  </si>
+  <si>
+    <t>12858 California St</t>
+  </si>
+  <si>
+    <t>Tristan Fuimaono</t>
+  </si>
+  <si>
+    <t>608-50-4941</t>
+  </si>
+  <si>
+    <t>12812 6th St</t>
+  </si>
+  <si>
+    <t>820-35-4323</t>
+  </si>
+  <si>
+    <t>12821 4th St, Sp #50</t>
+  </si>
+  <si>
+    <t>Antonio Coie</t>
+  </si>
+  <si>
+    <t>620-98-9038</t>
+  </si>
+  <si>
+    <t>1624 W Rialto Ave, Apt 143</t>
+  </si>
+  <si>
+    <t>Fontana, CA 92336</t>
+  </si>
+  <si>
+    <t>87-227-9052</t>
+  </si>
+  <si>
+    <t>622-92-0703</t>
+  </si>
+  <si>
+    <t>33368 Washington Dr</t>
+  </si>
+  <si>
+    <t>606-54-7419</t>
+  </si>
+  <si>
+    <t>12380 4th St, Sp #64</t>
+  </si>
+  <si>
+    <t>621-22-2805</t>
+  </si>
+  <si>
+    <t>34184 County Line Rd, Sp #46</t>
+  </si>
+  <si>
+    <t>571-89-4024</t>
+  </si>
+  <si>
+    <t>34642 Yucaipa Blvd, Sp #16</t>
+  </si>
+  <si>
+    <t>Brian Nguyen</t>
+  </si>
+  <si>
+    <t>625-28-7674</t>
+  </si>
+  <si>
+    <t>34642 Yucaipa Blvd, Sp 47</t>
+  </si>
+  <si>
+    <t>Bathshua Purvis</t>
+  </si>
+  <si>
+    <t>626-20-8719</t>
+  </si>
+  <si>
+    <t>34642 Yucaipa Blvd, Sp #47</t>
+  </si>
+  <si>
+    <t>Eric Welsh</t>
+  </si>
+  <si>
+    <t>20-8193759</t>
+  </si>
+  <si>
+    <t>34840 Yucaipa Blvd</t>
+  </si>
+  <si>
+    <t>West Coast Entitlement</t>
+  </si>
+  <si>
+    <t>88-1166756</t>
+  </si>
+  <si>
+    <t>543 W County Line Rd</t>
+  </si>
+  <si>
+    <t>Calimesa, CA 92320</t>
+  </si>
+  <si>
+    <t>Jaime Electric</t>
+  </si>
+  <si>
+    <t>04-3782175</t>
+  </si>
+  <si>
+    <t>11639 Telephone Ave</t>
+  </si>
+  <si>
+    <t>Chino, CA 91710</t>
+  </si>
+  <si>
+    <t>Diamond Homes</t>
+  </si>
+  <si>
+    <t>26-237-6342</t>
+  </si>
+  <si>
+    <t>474-09-0241</t>
+  </si>
+  <si>
+    <t>29875 Patterson Ave</t>
+  </si>
+  <si>
+    <t>Winchester, CA 92596</t>
+  </si>
+  <si>
+    <t>Xian Li Zhang</t>
+  </si>
+  <si>
+    <t>106-93-0732</t>
+  </si>
+  <si>
+    <t>11098 Malone St</t>
+  </si>
+  <si>
+    <t>616-83-3805</t>
+  </si>
+  <si>
+    <t>13061 2nd St, Leasing Office</t>
+  </si>
+  <si>
+    <t>614-24-3229</t>
+  </si>
+  <si>
+    <t>18770 Stevens Rd</t>
+  </si>
+  <si>
+    <t>Adelanto, CA 92301</t>
+  </si>
+  <si>
+    <t>907-79-944</t>
+  </si>
+  <si>
+    <t>34184 County Line Rd, Sp 26</t>
+  </si>
+  <si>
+    <t>Tian Wei Zhang</t>
+  </si>
+  <si>
+    <t>34184 County Line Rd, Ofc</t>
+  </si>
+  <si>
+    <t>610-18-5031</t>
+  </si>
+  <si>
+    <t>039-97-9352</t>
+  </si>
+  <si>
+    <t>Ting Jiang</t>
+  </si>
+  <si>
+    <t>686-85-5434</t>
+  </si>
+  <si>
+    <t>81-213-7628</t>
+  </si>
+  <si>
+    <t>564-43-8701</t>
+  </si>
+  <si>
+    <t>22933 Perry St</t>
+  </si>
+  <si>
+    <t>Perris, CA 92570</t>
+  </si>
+  <si>
+    <t>940-95-3659</t>
+  </si>
+  <si>
+    <t>34480 W County Line Rd, Sp #73</t>
+  </si>
+  <si>
+    <t>H&amp;A Construction</t>
+  </si>
+  <si>
+    <t>607-82-9411</t>
+  </si>
+  <si>
+    <t>20599 Avenida Vizcaya</t>
+  </si>
+  <si>
+    <t>Homeland, CA 92548</t>
+  </si>
+  <si>
+    <t>86-269-2633</t>
+  </si>
+  <si>
+    <t>25702 Delphinium Ave</t>
+  </si>
+  <si>
+    <t>Moreno Valley, CA 92533</t>
+  </si>
+  <si>
+    <t>554-31-2818</t>
+  </si>
+  <si>
+    <t>13061 2nd St, Sp #1</t>
+  </si>
+  <si>
+    <t>547-67-5880</t>
+  </si>
+  <si>
+    <t>34480 W County Line Rd, Sp #42</t>
+  </si>
+  <si>
+    <t>Amanda Steere</t>
+  </si>
+  <si>
+    <t>555-79-0485</t>
+  </si>
+  <si>
+    <t>13061 2nd St, 1A</t>
+  </si>
+  <si>
+    <t>543-35-6304</t>
+  </si>
+  <si>
+    <t>91-2159080</t>
+  </si>
+  <si>
+    <t>6170 20th Street</t>
+  </si>
+  <si>
+    <t>Riverside, CA 92509</t>
+  </si>
+  <si>
+    <t>John E Bouzane</t>
+  </si>
+  <si>
+    <t>52-2400069</t>
+  </si>
+  <si>
+    <t>474 W Orange Show Rd</t>
+  </si>
+  <si>
+    <t>San Bernardino, CA 92408</t>
+  </si>
+  <si>
+    <t>Isacc Rene Ibarra Miranda</t>
+  </si>
+  <si>
+    <t>836-52-3473</t>
+  </si>
+  <si>
+    <t>12380 4th St, Sp #50</t>
+  </si>
+  <si>
+    <t>Megan Blank</t>
+  </si>
+  <si>
+    <t>568-61-9947</t>
+  </si>
+  <si>
+    <t>Kyle Jacob Robinson</t>
+  </si>
+  <si>
+    <t>625-90-2032</t>
+  </si>
+  <si>
+    <t>12380 4th St, Sp #74</t>
+  </si>
+  <si>
+    <t>Travis Hill</t>
+  </si>
+  <si>
+    <t>606-22-6097</t>
+  </si>
+  <si>
+    <t>12380 4th St, Sp #34</t>
+  </si>
+  <si>
+    <t>Terry Buck</t>
+  </si>
+  <si>
+    <t>546-11-9263</t>
+  </si>
+  <si>
+    <t>12380 4th St, Apt A</t>
+  </si>
+  <si>
+    <t>624-88-5874</t>
+  </si>
+  <si>
+    <t>11034 Deer Canyon Dr</t>
+  </si>
+  <si>
+    <t>Rancho Cucamonga, CA 91737</t>
+  </si>
+  <si>
+    <t>85-147-6141</t>
+  </si>
+  <si>
+    <t>546-11-1706</t>
+  </si>
+  <si>
+    <t>34480 W County Line Rd, Sp #43</t>
+  </si>
+  <si>
+    <t>928-71-3880</t>
+  </si>
+  <si>
+    <t>34184 County Line Rd, Sp #89</t>
+  </si>
+  <si>
+    <t>565-19-8617</t>
+  </si>
+  <si>
+    <t>34480 County Line Rd, Sp #138</t>
+  </si>
+  <si>
+    <t>606-07-0231</t>
+  </si>
+  <si>
+    <t>309 East County Line Rd</t>
+  </si>
+  <si>
+    <t>Alex Froude</t>
+  </si>
+  <si>
+    <t>555-81-4231</t>
+  </si>
+  <si>
+    <t>34480 W County Line Rd, Sp #105</t>
+  </si>
+  <si>
+    <t>619-80-4039</t>
+  </si>
+  <si>
+    <t>7613 Del Rosa Ave</t>
+  </si>
+  <si>
+    <t>San Bernardino, CA 92410</t>
+  </si>
+  <si>
+    <t>140-92-7284</t>
+  </si>
+  <si>
+    <t>1858 Crane Ave</t>
+  </si>
+  <si>
+    <t>San Jacinto CA 92583</t>
+  </si>
+  <si>
+    <t>Nicole Holt</t>
+  </si>
+  <si>
+    <t>295-80-4894</t>
+  </si>
+  <si>
+    <t>7000 Saint Georges Road, Suite 208B</t>
+  </si>
+  <si>
+    <t>Ormond Beach, FL 32174</t>
+  </si>
+  <si>
+    <t>Jorge Luis Hernandez</t>
+  </si>
+  <si>
+    <t>555-63-6765</t>
+  </si>
+  <si>
+    <t>4142 Alta Vista Dr</t>
+  </si>
+  <si>
+    <t>530-70-5845</t>
+  </si>
+  <si>
+    <t>13063 5th St, Sp #14</t>
+  </si>
+  <si>
+    <t>Tyler-Charles Edward Dow</t>
+  </si>
+  <si>
+    <t>606-45-8075</t>
+  </si>
+  <si>
+    <t>Pro-Rise Garage Door Company</t>
+  </si>
+  <si>
+    <t>33-072-1632</t>
+  </si>
+  <si>
+    <t>962 E Lincoln St, Unit A</t>
+  </si>
+  <si>
+    <t>Banning, CA 92220</t>
+  </si>
+  <si>
+    <t>Walker Signs</t>
+  </si>
+  <si>
+    <t>82-1915180</t>
+  </si>
+  <si>
+    <t>35176 Eureka Ave</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,###"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -140,13 +674,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="4"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -187,11 +714,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -199,11 +723,16 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -518,328 +1047,1402 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3EEFF51-2E49-41C8-A9EE-073E0BCFAF77}">
-  <dimension ref="B1:O21"/>
+  <dimension ref="A1:G60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="1.5703125" customWidth="1"/>
-    <col min="2" max="2" width="4.42578125" customWidth="1"/>
-    <col min="3" max="3" width="14.85546875" customWidth="1"/>
-    <col min="4" max="4" width="29" style="3" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" customWidth="1"/>
-    <col min="7" max="7" width="17" customWidth="1"/>
-    <col min="8" max="8" width="20.28515625" customWidth="1"/>
+    <col min="1" max="1" width="14.81640625" customWidth="1"/>
+    <col min="2" max="2" width="29" style="2" customWidth="1"/>
+    <col min="3" max="3" width="13.7265625" customWidth="1"/>
+    <col min="4" max="4" width="14.81640625" customWidth="1"/>
+    <col min="5" max="5" width="17" customWidth="1"/>
+    <col min="6" max="6" width="20.26953125" customWidth="1"/>
+    <col min="7" max="7" width="9.7265625" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
+    <row r="1" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="2:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="1"/>
-      <c r="C3" s="2" t="s">
+      <c r="D1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" s="7">
+        <v>308189</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G3" s="7">
+        <v>37100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G4" s="7">
+        <v>15634</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G5" s="7">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G6" s="7">
+        <v>16500</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G7" s="7">
+        <v>12600</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="G8" s="7">
+        <v>31400</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="G9" s="7">
+        <v>6200</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A10" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="G10" s="7">
+        <v>26500</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A11" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G11" s="7">
+        <v>90660</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A12" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G12" s="7">
+        <v>22723.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A13" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G13" s="7">
+        <v>41534</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A14" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="G14" s="7">
+        <v>42180</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A15" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G15" s="7">
+        <v>65200</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A16" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G16" s="7">
+        <v>40750</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A17" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G17" s="7">
+        <v>35755</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A18" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G18" s="7">
+        <v>43067</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A19" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G19" s="7">
+        <v>13090</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A20" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G20" s="7">
+        <v>8517</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A21" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G21" s="7">
+        <v>2625</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A22" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="G22" s="7">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A23" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="G23" s="7">
+        <v>5601.96</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A24" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="G24" s="7">
+        <v>95735</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A25" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G25" s="7">
+        <v>101947</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A26" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G26" s="7">
+        <v>66875</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A27" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="G27" s="7">
+        <v>54000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A28" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G28" s="7">
+        <v>41120.31</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A29" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G29" s="7">
+        <v>13796</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A30" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G30" s="7">
+        <v>109612</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A31" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G31" s="7">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A32" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B32" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="I3" s="7" t="s">
+      <c r="C32" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="G32" s="7">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A33" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G33" s="7">
+        <v>29700</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A34" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="G34" s="7">
+        <v>19750</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A35" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="G35" s="7">
+        <v>12645</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A36" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G36" s="7">
+        <v>3968</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A37" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G37" s="7">
+        <v>12987</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A38" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G38" s="7">
+        <v>12798</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A39" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B39" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C39" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="O3" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="2:15" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="5">
-        <v>1</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="5" t="s">
+      <c r="D39" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G39" s="7">
+        <v>112341</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A40" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B40" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="G40" s="7">
+        <v>79720</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A41" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="B41" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="G41" s="7">
+        <v>43350</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A42" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="B42" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G42" s="7">
+        <v>27687</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A43" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="B43" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G43" s="7">
+        <v>2994</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A44" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="B44" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G44" s="7">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A45" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="B45" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G45" s="7">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A46" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="B46" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G46" s="7">
+        <v>12466</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A47" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" s="5" t="s">
+      <c r="B47" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="I4" s="5">
-        <v>13740</v>
-      </c>
-      <c r="O4" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="2:15" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="5">
-        <v>2</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="I5" s="5">
-        <v>13740</v>
-      </c>
-      <c r="O5" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B6" s="5">
-        <v>3</v>
-      </c>
-      <c r="C6" s="5" t="s">
+      <c r="C47" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="G47" s="7">
+        <v>65000</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A48" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B48" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="I6" s="5">
-        <v>13740</v>
-      </c>
-      <c r="O6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B7" s="5">
-        <v>4</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="I7" s="5">
-        <v>13740</v>
-      </c>
-      <c r="O7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B8" s="5">
-        <v>5</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="I8" s="5">
-        <v>13740</v>
-      </c>
-      <c r="O8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B9" s="5">
-        <v>6</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="I9" s="5">
-        <v>13740</v>
-      </c>
-      <c r="O9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B10" s="5">
-        <v>7</v>
-      </c>
-      <c r="C10" s="5" t="s">
+      <c r="C48" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G48" s="7">
+        <v>42098</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A49" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B49" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G49" s="7">
+        <v>46579</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A50" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D10" t="s">
-        <v>26</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="I10" s="5">
-        <v>13740</v>
-      </c>
-      <c r="O10" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B11" s="5">
-        <v>8</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D11" t="s">
-        <v>27</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="I11" s="5">
-        <v>13740</v>
-      </c>
-      <c r="O11" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="C12" s="4"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-    </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="C13" s="4"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-    </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="C14" s="4"/>
-      <c r="D14" s="6"/>
-    </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="C15" s="4"/>
-      <c r="D15" s="6"/>
-    </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="C16" s="4"/>
-      <c r="D16" s="6"/>
-    </row>
-    <row r="17" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C17" s="4"/>
-      <c r="D17" s="6"/>
-    </row>
-    <row r="18" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C18" s="4"/>
-      <c r="D18" s="6"/>
-    </row>
-    <row r="19" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C19" s="4"/>
-    </row>
-    <row r="20" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C20" s="4"/>
-    </row>
-    <row r="21" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C21" s="4"/>
+      <c r="B50" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G50" s="7">
+        <v>25990</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A51" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B51" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="F51" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="G51" s="7">
+        <v>10945</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A52" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="B52" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G52" s="7">
+        <v>8900</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A53" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B53" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="F53" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="G53" s="7">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A54" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B54" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="G54" s="7">
+        <v>8867</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A55" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="B55" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="F55" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="G55" s="7">
+        <v>4513</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A56" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="B56" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="F56" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="G56" s="7">
+        <v>8145</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A57" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B57" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G57" s="7">
+        <v>3700</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A58" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="B58" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G58" s="7">
+        <v>6582.5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A59" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="B59" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="G59" s="7">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A60" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="B60" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G60" s="7">
+        <v>700</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
